--- a/Docs/octree_stats.xlsx
+++ b/Docs/octree_stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>PC</t>
   </si>
@@ -44,14 +44,17 @@
   <si>
     <t>RAM used</t>
   </si>
+  <si>
+    <t>RAM Usage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0&quot;MB&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -93,13 +96,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -114,14 +110,50 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -155,14 +187,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.0&quot;MB&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.0&quot;MB&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -171,14 +195,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -209,18 +226,652 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Time (Nicotopia)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00"s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194.958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1669.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00"s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.608999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.90800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00"s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.251000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="600385024"/>
+        <c:axId val="597676544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="600385024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Treesize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="597676544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597676544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00&quot;s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="600385024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Space (Nicotopia)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM reserved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0" MB"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM used</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0" MB"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="651659264"/>
+        <c:axId val="599626816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="651659264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Treesize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="599626816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599626816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0&quot; MB&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="651659264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7" title="Tme"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H4" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:H4"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="PC" totalsRowLabel="Ergebnis" dataDxfId="8" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Treesize" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Generating" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Saving" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Loading" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="RAM used" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="RAM reserved" dataDxfId="10" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Filesize" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:I6" headerRowDxfId="19" dataDxfId="4">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="PC" totalsRowLabel="Ergebnis" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Treesize" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Generating" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Saving" dataDxfId="16" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Loading" dataDxfId="15" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="RAM used" dataDxfId="0" totalsRowDxfId="11"/>
+    <tableColumn id="7" name="RAM reserved" dataDxfId="2" totalsRowDxfId="12"/>
+    <tableColumn id="8" name="RAM Usage" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="13">
+      <calculatedColumnFormula>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Filesize" dataDxfId="1" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,160 +1164,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="15" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
-        <v>512</v>
-      </c>
-      <c r="C2" s="8">
-        <v>23.334</v>
-      </c>
-      <c r="D2" s="8">
-        <v>25.138000000000002</v>
-      </c>
-      <c r="E2" s="8">
-        <v>6.0140000000000002</v>
-      </c>
-      <c r="F2" s="5">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5">
-        <v>164</v>
-      </c>
-      <c r="H2" s="8">
-        <v>10.5</v>
+      <c r="B2" s="8">
+        <v>256</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>13.651</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="F2" s="14">
+        <v>14</v>
+      </c>
+      <c r="G2" s="14">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11">
+        <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="I2" s="14">
+        <v>2.64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>1024</v>
-      </c>
-      <c r="C3" s="8">
-        <v>202.71799999999999</v>
-      </c>
-      <c r="D3" s="8">
-        <v>67.230999999999995</v>
-      </c>
-      <c r="E3" s="8">
-        <v>24.050999999999998</v>
-      </c>
-      <c r="F3" s="5">
-        <v>288</v>
-      </c>
-      <c r="G3" s="5">
-        <v>656</v>
-      </c>
-      <c r="H3" s="8">
-        <v>42.2</v>
+      <c r="B3" s="8">
+        <v>512</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22.347000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25.056999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="F3" s="14">
+        <v>58</v>
+      </c>
+      <c r="G3" s="14">
+        <v>132</v>
+      </c>
+      <c r="H3" s="11">
+        <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="I3" s="14">
+        <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="5">
+        <v>194.958</v>
+      </c>
+      <c r="D4" s="5">
+        <v>66.608999999999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>23.649000000000001</v>
+      </c>
+      <c r="F4" s="14">
+        <v>232</v>
+      </c>
+      <c r="G4" s="14">
+        <v>528</v>
+      </c>
+      <c r="H4" s="11">
+        <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="I4" s="14">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
         <v>2048</v>
       </c>
-      <c r="C4" s="8">
-        <v>1738.66</v>
-      </c>
-      <c r="D4" s="8">
-        <v>264.88600000000002</v>
-      </c>
-      <c r="E4" s="8">
-        <v>96.51</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1155</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2624</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="C5" s="5">
+        <v>1669.92</v>
+      </c>
+      <c r="D5" s="5">
+        <v>262.90800000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>94.251000000000005</v>
+      </c>
+      <c r="F5" s="14">
+        <v>930</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2112</v>
+      </c>
+      <c r="H5" s="11">
+        <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
+        <v>0.44034090909090912</v>
+      </c>
+      <c r="I5" s="14">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4096</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11" t="e">
+        <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Docs/octree_stats.xlsx
+++ b/Docs/octree_stats.xlsx
@@ -53,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;s&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0&quot; MB&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,13 +96,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -117,14 +117,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -133,15 +133,14 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00&quot;s&quot;"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -152,50 +151,51 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0&quot; MB&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00&quot;s&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00&quot;s&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00&quot;s&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00&quot;s&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -324,6 +324,9 @@
                 <c:pt idx="3">
                   <c:v>1669.92</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>14174.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -388,6 +391,9 @@
                 <c:pt idx="3">
                   <c:v>262.90800000000002</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1118.9100000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -452,6 +458,9 @@
                 <c:pt idx="3">
                   <c:v>94.251000000000005</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.29599999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -467,11 +476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600385024"/>
-        <c:axId val="597676544"/>
+        <c:axId val="103987200"/>
+        <c:axId val="101128384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="600385024"/>
+        <c:axId val="103987200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597676544"/>
+        <c:crossAx val="101128384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597676544"/>
+        <c:axId val="101128384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600385024"/>
+        <c:crossAx val="103987200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -639,6 +648,9 @@
                 <c:pt idx="3">
                   <c:v>2112</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -703,6 +715,9 @@
                 <c:pt idx="3">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3721</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -718,11 +733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="651659264"/>
-        <c:axId val="599626816"/>
+        <c:axId val="114745344"/>
+        <c:axId val="114057792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="651659264"/>
+        <c:axId val="114745344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599626816"/>
+        <c:crossAx val="114057792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599626816"/>
+        <c:axId val="114057792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="651659264"/>
+        <c:crossAx val="114745344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,20 +873,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:I6" headerRowDxfId="19" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:I6" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="PC" totalsRowLabel="Ergebnis" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Treesize" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Generating" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Saving" dataDxfId="16" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Loading" dataDxfId="15" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="RAM used" dataDxfId="0" totalsRowDxfId="11"/>
-    <tableColumn id="7" name="RAM reserved" dataDxfId="2" totalsRowDxfId="12"/>
-    <tableColumn id="8" name="RAM Usage" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="13">
+    <tableColumn id="1" name="PC" totalsRowLabel="Ergebnis" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="Treesize" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="Generating" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="Saving" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Loading" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="RAM used" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="RAM reserved" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="RAM Usage" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Filesize" dataDxfId="1" totalsRowDxfId="5"/>
+    <tableColumn id="9" name="Filesize" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,7 +1182,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,16 +1353,28 @@
       <c r="B6" s="8">
         <v>4096</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11" t="e">
+      <c r="C6" s="5">
+        <v>14174.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1118.9100000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>394.29599999999999</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3721</v>
+      </c>
+      <c r="G6" s="14">
+        <v>8000</v>
+      </c>
+      <c r="H6" s="11">
         <f>Tabelle6[[#This Row],[RAM used]]/Tabelle6[[#This Row],[RAM reserved]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="14"/>
+        <v>0.46512500000000001</v>
+      </c>
+      <c r="I6" s="14">
+        <v>676</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
